--- a/Tools/Data/__tables__.xlsx
+++ b/Tools/Data/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSoultion\Game\hsproject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSoultion\Game\YoLoV8-GameQA\Tools\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233BDE9A-00DA-4F30-ADB4-F56DA873C5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DBC6DF-A3E2-45E8-BD3C-CDE99EE9CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9390" yWindow="4935" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -123,20 +123,47 @@
     <t>demo.xlsx</t>
   </si>
   <si>
-    <t>cfg.TbAttribute</t>
-  </si>
-  <si>
-    <t>AttributeTable</t>
-  </si>
-  <si>
-    <t>10_属性表.xlsx</t>
+    <t>cfg.TbActions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ActionTable.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfg.TbClasses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.ClassTable.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfg.MissionTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.MissionTable.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +181,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -189,11 +224,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,17 +635,45 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
